--- a/biology/Botanique/Chêne_de_Cantaure/Chêne_de_Cantaure.xlsx
+++ b/biology/Botanique/Chêne_de_Cantaure/Chêne_de_Cantaure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Cantaure</t>
+          <t>Chêne_de_Cantaure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le chêne de Cantaure est un chêne pédonculé datant au moins du XIVe siècle situé sur la commune de Lüe, dans le département français des Landes. Il reçoit le label  « Arbre remarquable de France » par l'association nationale A.R.B.R.E.S. le 3 mai 2011[1].
+Le chêne de Cantaure est un chêne pédonculé datant au moins du XIVe siècle situé sur la commune de Lüe, dans le département français des Landes. Il reçoit le label  « Arbre remarquable de France » par l'association nationale A.R.B.R.E.S. le 3 mai 2011.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Cantaure</t>
+          <t>Chêne_de_Cantaure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa circonférence est 8 m et de 11 m au niveau du sol. Sa hauteur atteint entre 18 et 20 m. Son tronc est creux[1].
-Le propriétaire de la parcelle, Michel Harribey, fait don du chêne et du lopin qui l'entoure à la commune par acte du 26 mars 1997[2]. Cette dernière a depuis la responsabilité de la protection de ce patrimoine naturel[1].
-Histoire
-Une légende voudrait que le chêne de Cantaure, ou son espace immédiat, ait vu le passage du pape Léon IX et une halte du pape Clément V vers 1310[1].
-Le chêne est mentionné et photographié par l'ethnologue de la Haute-Lande Félix Arnaudin dans son ouvrage intitulé « au temps des échasses » dans les années 1900[1]. L'auteur en parle en ces termes :
-« Au quartier de Cantore, tout au bord du chemin, s'élève un magnifique chêne qu'on a plaisir à voir pour le charme des choses d'autrefois qu'il répand sur ce petit coin de terre, duquel j'aurai à parler un peu plus au long dans la suite. Un jour, il y a quelque trente ans (donc vers 1870), le hasard m'ayant conduit par là au moment où les métayers attaquaient à la hache l'arbre vénérable pour le convertir en bois à brûler, je courus chez le propriétaire, mon parent, qui, à ma prière instante, vint en hâte donner aux ouvriers l'ordre d'en rester là de leur besogne. Et le chêne de Cantore continue à vivre... »[1].
-Par sa diligence, Félix Arnaudin a donc sauvé in extremis le chêne de la destruction à laquelle il était promis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa circonférence est 8 m et de 11 m au niveau du sol. Sa hauteur atteint entre 18 et 20 m. Son tronc est creux.
+Le propriétaire de la parcelle, Michel Harribey, fait don du chêne et du lopin qui l'entoure à la commune par acte du 26 mars 1997. Cette dernière a depuis la responsabilité de la protection de ce patrimoine naturel.
 </t>
         </is>
       </c>
@@ -531,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Cantaure</t>
+          <t>Chêne_de_Cantaure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +555,54 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une légende voudrait que le chêne de Cantaure, ou son espace immédiat, ait vu le passage du pape Léon IX et une halte du pape Clément V vers 1310.
+Le chêne est mentionné et photographié par l'ethnologue de la Haute-Lande Félix Arnaudin dans son ouvrage intitulé « au temps des échasses » dans les années 1900. L'auteur en parle en ces termes :
+« Au quartier de Cantore, tout au bord du chemin, s'élève un magnifique chêne qu'on a plaisir à voir pour le charme des choses d'autrefois qu'il répand sur ce petit coin de terre, duquel j'aurai à parler un peu plus au long dans la suite. Un jour, il y a quelque trente ans (donc vers 1870), le hasard m'ayant conduit par là au moment où les métayers attaquaient à la hache l'arbre vénérable pour le convertir en bois à brûler, je courus chez le propriétaire, mon parent, qui, à ma prière instante, vint en hâte donner aux ouvriers l'ordre d'en rester là de leur besogne. Et le chêne de Cantore continue à vivre... ».
+Par sa diligence, Félix Arnaudin a donc sauvé in extremis le chêne de la destruction à laquelle il était promis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chêne_de_Cantaure</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ch%C3%AAne_de_Cantaure</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Au cinéma</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chêne sert de décor en juin 2019 au tournage de la dernière scène du court-métrage « Liška : l'appel de l'innocence »[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chêne sert de décor en juin 2019 au tournage de la dernière scène du court-métrage « Liška : l'appel de l'innocence ».
 </t>
         </is>
       </c>
